--- a/OREI_files/10-herd data/herd-level data/herd_level_data_BTSCC_bedding_and_BTM_culture.xlsx
+++ b/OREI_files/10-herd data/herd-level data/herd_level_data_BTSCC_bedding_and_BTM_culture.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI/10-herd data/herd-level data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/herd-level data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{07E899A1-1689-4DDC-91BB-49561D2CE656}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6019F2C0-F87B-4A6E-9F20-76707BA332AD}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{07E899A1-1689-4DDC-91BB-49561D2CE656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E49B3B31-243B-44AD-8BFD-9EE16DEBDA3F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{65CD2499-88D5-41CE-BC3E-EB01FCD8C47E}"/>
   </bookViews>
@@ -403,12 +403,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -424,13 +430,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -438,6 +446,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4139,7 +4152,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4163,22 +4176,23 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -4220,22 +4234,23 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -4277,22 +4292,23 @@
         <v>237000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -4414,39 +4430,41 @@
         <v>205000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15">
+    <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
         <v>21</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16">
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E16" t="s">
-        <v>3</v>
-      </c>
+      <c r="E16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
@@ -4468,22 +4486,23 @@
         <v>123000</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18">
+    <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>1</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
@@ -4585,22 +4604,23 @@
         <v>209000</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24">
+    <row r="24" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
         <v>30</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="4">
         <v>1</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
@@ -4622,22 +4642,23 @@
         <v>329000</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26">
+    <row r="26" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
         <v>32</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="4">
         <v>1</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">

--- a/OREI_files/10-herd data/herd-level data/herd_level_data_BTSCC_bedding_and_BTM_culture.xlsx
+++ b/OREI_files/10-herd data/herd-level data/herd_level_data_BTSCC_bedding_and_BTM_culture.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/herd-level data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{07E899A1-1689-4DDC-91BB-49561D2CE656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E49B3B31-243B-44AD-8BFD-9EE16DEBDA3F}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{07E899A1-1689-4DDC-91BB-49561D2CE656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8C21A04-E539-4CAE-859E-9F1B7876CCDE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{65CD2499-88D5-41CE-BC3E-EB01FCD8C47E}"/>
+    <workbookView xWindow="38280" yWindow="3780" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{65CD2499-88D5-41CE-BC3E-EB01FCD8C47E}"/>
   </bookViews>
   <sheets>
     <sheet name="BTM culture" sheetId="4" r:id="rId1"/>
     <sheet name="Bedding culture" sheetId="3" r:id="rId2"/>
     <sheet name="BTSCC" sheetId="2" r:id="rId3"/>
+    <sheet name="BTSCC (2)" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="117">
   <si>
     <t>third</t>
   </si>
@@ -369,6 +370,15 @@
   </si>
   <si>
     <t>kleb_count</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>st dev</t>
   </si>
 </sst>
 </file>
@@ -417,7 +427,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -425,12 +435,166 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -439,12 +603,55 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99FF"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF99FF"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -460,6 +667,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4151,8 +4362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD00AAD-FCCE-4209-8586-89F8F8F82280}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4763,4 +4974,718 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4372CC7B-C592-40FE-A936-2EC8C3816C66}">
+  <dimension ref="A1:M32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="5" width="13.08984375" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="4">
+        <v>32</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="10">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="12">
+        <v>3</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
+        <v>180000</v>
+      </c>
+      <c r="G11" s="26">
+        <f>AVERAGE(F10:F11)</f>
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="9">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="10">
+        <v>296000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="12">
+        <v>3</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13">
+        <v>237000</v>
+      </c>
+      <c r="G13" s="26">
+        <f>AVERAGE(F12:F13)</f>
+        <v>266500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="10">
+        <v>242000</v>
+      </c>
+      <c r="L14" s="28">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>16</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="15">
+        <v>3</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16">
+        <v>181000</v>
+      </c>
+      <c r="L15" s="29">
+        <v>103000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="6">
+        <v>17</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="18">
+        <v>4</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="19">
+        <v>197000</v>
+      </c>
+      <c r="G16" s="27">
+        <f>AVERAGE(F14:F16)</f>
+        <v>206666.66666666666</v>
+      </c>
+      <c r="L16" s="30">
+        <v>123000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>18</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="21">
+        <v>1</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="22">
+        <v>269000</v>
+      </c>
+      <c r="L17" s="30">
+        <v>146500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>19</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="15">
+        <v>2</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="16">
+        <v>217000</v>
+      </c>
+      <c r="L18" s="30">
+        <v>162500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="6">
+        <v>20</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="18">
+        <v>3</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="19">
+        <v>205000</v>
+      </c>
+      <c r="G19" s="27">
+        <f>AVERAGE(F17:F19)</f>
+        <v>230333.33333333334</v>
+      </c>
+      <c r="L19" s="30">
+        <v>164666.66666666666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="6">
+        <v>23</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="24">
+        <v>3</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="25">
+        <v>123000</v>
+      </c>
+      <c r="G20" s="25">
+        <v>123000</v>
+      </c>
+      <c r="L20" s="30">
+        <v>206666.66666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>25</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="21">
+        <v>2</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="22">
+        <v>168000</v>
+      </c>
+      <c r="L21" s="30">
+        <v>230333.33333333334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="6">
+        <v>26</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="18">
+        <v>3</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="19">
+        <v>157000</v>
+      </c>
+      <c r="G22" s="27">
+        <f>AVERAGE(F21:F22)</f>
+        <v>162500</v>
+      </c>
+      <c r="L22" s="30">
+        <v>266500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="6">
+        <v>27</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="21">
+        <v>1</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="22">
+        <v>166000</v>
+      </c>
+      <c r="L23" s="31">
+        <v>329000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
+        <v>28</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="15">
+        <v>2</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="16">
+        <v>119000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="6">
+        <v>29</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="18">
+        <v>3</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="19">
+        <v>209000</v>
+      </c>
+      <c r="G25" s="27">
+        <f>AVERAGE(F23:F25)</f>
+        <v>164666.66666666666</v>
+      </c>
+      <c r="L25" s="27">
+        <f>AVERAGE(L14:L23)</f>
+        <v>186716.66666666666</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="6">
+        <v>31</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="24">
+        <v>2</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="25">
+        <v>329000</v>
+      </c>
+      <c r="G26" s="25">
+        <v>329000</v>
+      </c>
+      <c r="L26" s="27">
+        <f>MEDIAN(L14:L23)</f>
+        <v>163583.33333333331</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="6">
+        <v>33</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="21">
+        <v>2</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="22">
+        <v>130000</v>
+      </c>
+      <c r="L27" s="7">
+        <f>_xlfn.STDEV.S(L14:L23)</f>
+        <v>70979.87238612528</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="6">
+        <v>34</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="18">
+        <v>3</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="19">
+        <v>163000</v>
+      </c>
+      <c r="G28" s="27">
+        <f>AVERAGE(F27:F28)</f>
+        <v>146500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
+        <v>35</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="21">
+        <v>1</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="22">
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
+        <v>36</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="15">
+        <v>2</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="16">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="6">
+        <v>37</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="18">
+        <v>3</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="19">
+        <v>126000</v>
+      </c>
+      <c r="G31" s="27">
+        <f>AVERAGE(F29:F31)</f>
+        <v>103000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L32" s="6"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L15:L34">
+    <sortCondition ref="L15:L34"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>